--- a/iselUssSyncV2/OutputWSLorientation/20220524_1418_D50L474W30Q22.8U0.40H72.0G2_S3_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1418_D50L474W30Q22.8U0.40H72.0G2_S3_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.41828060672079148</v>
+        <v>0.23915126453688604</v>
       </c>
       <c r="P2" s="0">
         <v>198.98485333333343</v>
@@ -356,10 +356,10 @@
         <v>1.9520414112000011</v>
       </c>
       <c r="R2" s="0">
-        <v>1.0173308531028074</v>
+        <v>1.7793331233086165</v>
       </c>
       <c r="S2" s="0">
-        <v>0.34426216905706902</v>
+        <v>1.0300395721151456</v>
       </c>
       <c r="T2" s="0">
         <v>0.043952356837613539</v>
@@ -383,16 +383,16 @@
         <v>190000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.9187871922358142</v>
+        <v>1.097063492849635</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.6702176034811638</v>
+        <v>1.8951130267661087</v>
       </c>
       <c r="AC2" s="0">
-        <v>2.198267366601129</v>
+        <v>1.2568558332989013</v>
       </c>
       <c r="AD2" s="0">
-        <v>2.6703327266278891</v>
+        <v>1.3351663633139446</v>
       </c>
       <c r="AE2" s="0">
         <v>30</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>7.8684849700822923</v>
+        <v>3.15196886006501</v>
       </c>
     </row>
   </sheetData>
